--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -336,17 +336,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="77.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="12.57"/>
@@ -395,6 +395,9 @@
       <c r="F3" s="8" t="n">
         <v>182.99</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
@@ -411,6 +414,9 @@
       <c r="F4" s="8" t="n">
         <v>215.36</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -426,6 +432,9 @@
       </c>
       <c r="F5" s="8" t="n">
         <v>265.57</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,7 +396,7 @@
         <v>182.99</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
